--- a/Facebook bugs.xlsx
+++ b/Facebook bugs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Islam Heshmat\Desktop\fatura\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Islam Heshmat\Desktop\fatura\Fatura-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7D67B3-3E87-49A1-AFDA-6EE06DC9785E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{181CBCD8-4583-40C4-BE12-868BF155C46A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="936" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="44">
   <si>
     <t>Bug ID</t>
   </si>
@@ -197,6 +197,15 @@
   </si>
   <si>
     <t>#Bug-003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-open the facebook mobile app.
+2-click on the menu button&amp;scroll down
+3-click on the settings button&amp;scroll down
+4-click on media and contacts
+5-select never autoplay
+6-open a facebook video through a link shared on whatapp
+</t>
   </si>
 </sst>
 </file>
@@ -3855,7 +3864,7 @@
   <dimension ref="A1:E995"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6955,7 +6964,7 @@
   <dimension ref="A1:E995"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7045,7 +7054,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
